--- a/Design/Excel/ModelData.xlsx
+++ b/Design/Excel/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="20595" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="ModelData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -22,28 +22,52 @@
     <t>ModelPath</t>
   </si>
   <si>
+    <t>TestDic</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>dic_int_string</t>
+  </si>
+  <si>
     <t>模型路径</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>Assets/Res/Model/Model1.prefab</t>
   </si>
   <si>
+    <t>1:a|2:b|3:c</t>
+  </si>
+  <si>
     <t>Assets/Res/Model/Model2.prefab</t>
   </si>
   <si>
+    <t>1:a|2:b|4:c</t>
+  </si>
+  <si>
     <t>Assets/Res/Model/Model3.prefab</t>
   </si>
   <si>
+    <t>1:a|2:b|5:c</t>
+  </si>
+  <si>
     <t>Assets/Res/Model/Model4.prefab</t>
   </si>
   <si>
+    <t>1:a|2:b|6:c</t>
+  </si>
+  <si>
     <t>Assets/Res/Model/Model5.prefab</t>
+  </si>
+  <si>
+    <t>1:a|2:b|7:c</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1066,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1056,44 +1080,59 @@
     <col min="7" max="7" width="39.275" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
+    <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
+    <row r="3" s="3" customFormat="1" spans="1:3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1101,7 +1140,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -1110,7 +1152,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -1119,7 +1164,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
     </row>
